--- a/Baseline_Shield_BOM.xlsx
+++ b/Baseline_Shield_BOM.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Schematic Name</t>
   </si>
@@ -47,9 +50,6 @@
     <t>Digikey</t>
   </si>
   <si>
-    <t>http://www.digikey.com/product-detail/en/ECA-0JHG221/P5506-ND/245105</t>
-  </si>
-  <si>
     <t>Green LED</t>
   </si>
   <si>
@@ -68,9 +68,6 @@
     <t>10k Ohm Res</t>
   </si>
   <si>
-    <t>3x1 Pin Header</t>
-  </si>
-  <si>
     <t>Jumper</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>SAM1112-03-ND</t>
-  </si>
-  <si>
-    <t>TS-103-T-A</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -116,46 +107,85 @@
     <t>A26228-ND</t>
   </si>
   <si>
-    <t>Double Sided Pin Hdrs - 6</t>
-  </si>
-  <si>
-    <t>Double Sided Pin Hdrs - 8</t>
-  </si>
-  <si>
-    <t>Double Sided Pin Hdrs - 10</t>
-  </si>
-  <si>
     <t>Mouser</t>
   </si>
   <si>
     <t>Vendor PN</t>
   </si>
   <si>
-    <t>782-A000085</t>
-  </si>
-  <si>
-    <t>A000085</t>
-  </si>
-  <si>
-    <t>A000084</t>
-  </si>
-  <si>
-    <t>A000086</t>
-  </si>
-  <si>
-    <t>782-A000084</t>
-  </si>
-  <si>
-    <t>782-A000086</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Arduino/A000086/?qs=sGAEpiMZZMs%252bGHln7q6pmzktK14cxvCU3e1sFzOzsqQ%3d</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Arduino/A000084/?qs=sGAEpiMZZMs%252bGHln7q6pmzktK14cxvCUpXuzrRcQqkY%3d</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Arduino/A000085/?qs=sGAEpiMZZMs%252bGHln7q6pmzktK14cxvCU3Ne3lwkjnSU%3d</t>
+    <t>Piezo</t>
+  </si>
+  <si>
+    <t>Sparkfun</t>
+  </si>
+  <si>
+    <t>https://www.sparkfun.com/products/10293</t>
+  </si>
+  <si>
+    <t>7BB-20-6L0</t>
+  </si>
+  <si>
+    <t>SEN-10293</t>
+  </si>
+  <si>
+    <t>3x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>2x1 Female Pin Header</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity-AMP/4-103321-5/?qs=sGAEpiMZZMs%252bGHln7q6pm97UIqqiSP4A1%2f30GdYnar0%3d</t>
+  </si>
+  <si>
+    <t>571-4-103321-5</t>
+  </si>
+  <si>
+    <t>4-103321-5</t>
+  </si>
+  <si>
+    <t>http://www.digikey.com/product-detail/en/PPTC021LFBN-RC/S7000-ND/810142</t>
+  </si>
+  <si>
+    <t>S7000-ND</t>
+  </si>
+  <si>
+    <t>PPTC021LFBN-RC</t>
+  </si>
+  <si>
+    <t>8x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>3-644456-8</t>
+  </si>
+  <si>
+    <t>571-3-644456-8</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity/3-644456-8/?qs=%2fha2pyFaduhq9SnO3b23Xnp5ZlHUH1n%252bOjVXxNdDMLY%3d</t>
+  </si>
+  <si>
+    <t>3-644456-6</t>
+  </si>
+  <si>
+    <t>571-3-644456-6</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity/3-644456-6/?qs=sGAEpiMZZMs%252bGHln7q6pm5PveGu%252bNdYGb8ubr3nswks%3d</t>
+  </si>
+  <si>
+    <t>6x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>10x1 Male Pin Header</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/TE-Connectivity-AMP/1-640456-0/?qs=sGAEpiMZZMs%252bGHln7q6pm5E1Eb6qwPl20NYDFBq3IPM%3d</t>
+  </si>
+  <si>
+    <t>571-16404560</t>
+  </si>
+  <si>
+    <t>1-640456-0</t>
   </si>
 </sst>
 </file>
@@ -206,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +251,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -258,14 +300,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3"/>
@@ -284,10 +329,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="5" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
+    <cellStyle name="20% - Accent6" xfId="7" builtinId="50"/>
     <cellStyle name="40% - Accent1" xfId="3" builtinId="31"/>
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,22 +629,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="132" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -594,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -614,56 +675,56 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>660</v>
-      </c>
-      <c r="E2" s="4">
-        <v>9.2160000000000006E-2</v>
+        <v>110</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.22800000000000001</v>
       </c>
       <c r="F2" s="5">
         <f>E2*D2</f>
-        <v>60.825600000000001</v>
-      </c>
-      <c r="G2" s="5" t="s">
+        <v>25.080000000000002</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>660</v>
       </c>
       <c r="E3" s="4">
-        <v>6.0200000000000002E-3</v>
+        <v>9.2160000000000006E-2</v>
       </c>
       <c r="F3" s="5">
-        <f t="shared" ref="F3:F9" si="0">E3*D3</f>
-        <v>3.9732000000000003</v>
+        <f>E3*D3</f>
+        <v>60.825600000000001</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -671,190 +732,248 @@
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="2">
-        <v>220</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4">
-        <v>6.0200000000000002E-3</v>
+        <v>7.8E-2</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" si="0"/>
-        <v>1.3244</v>
+        <f>E4*D4</f>
+        <v>8.58</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>39</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D5" s="2">
-        <v>110</v>
+        <v>660</v>
       </c>
       <c r="E5" s="4">
-        <v>0.96840000000000004</v>
+        <v>6.0200000000000002E-3</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="0"/>
-        <v>106.524</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>33</v>
+        <f>E5*D5</f>
+        <v>3.9732000000000003</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>220</v>
       </c>
       <c r="E6" s="4">
-        <v>0.96840000000000004</v>
+        <v>6.0200000000000002E-3</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="0"/>
-        <v>213.048</v>
-      </c>
-      <c r="G6" s="13" t="s">
+        <f>E6*D6</f>
+        <v>1.3244</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="15">
+        <v>110</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="F7" s="17">
+        <f>E7*D7</f>
+        <v>21.34</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="15">
+        <v>220</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <f>E8*D8</f>
+        <v>79.42</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="15">
+        <v>110</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="F9" s="17">
+        <f>E9*D9</f>
+        <v>32.67</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="B10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="15">
+        <v>330</v>
+      </c>
+      <c r="E10" s="16">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F10" s="17">
+        <f>E10*D10</f>
+        <v>28.709999999999997</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="D11" s="19">
         <v>110</v>
       </c>
-      <c r="E7" s="4">
-        <v>0.96840000000000004</v>
-      </c>
-      <c r="F7" s="5">
-        <f t="shared" si="0"/>
-        <v>106.524</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>110</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.66310000000000002</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" si="0"/>
-        <v>72.941000000000003</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="E11" s="21">
+        <v>1.35</v>
+      </c>
+      <c r="F11" s="22">
+        <f>E11*D11</f>
+        <v>148.5</v>
+      </c>
+      <c r="G11" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="2">
-        <v>110</v>
-      </c>
-      <c r="E9" s="4">
-        <v>7.8E-2</v>
-      </c>
-      <c r="F9" s="5">
-        <f t="shared" si="0"/>
-        <v>8.58</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="12">
-        <f>SUM(F2:F9)</f>
-        <v>573.74020000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="12">
-        <f>F12/100</f>
-        <v>5.7374020000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="12">
+        <f>SUM(F2:F11)</f>
+        <v>410.42320000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="12">
+        <f>F14/100</f>
+        <v>4.1042319999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <autoFilter ref="A1:H11">
+    <sortState ref="A2:H11">
+      <sortCondition ref="G1:G11"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-    <hyperlink ref="H8" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="H2" r:id="rId4"/>
-    <hyperlink ref="H9" r:id="rId5"/>
+    <hyperlink ref="H5" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H4" r:id="rId3"/>
+    <hyperlink ref="H6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/Baseline_Shield_BOM.xlsx
+++ b/Baseline_Shield_BOM.xlsx
@@ -192,9 +192,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -317,7 +318,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -329,9 +329,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6"/>
-    <xf numFmtId="44" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -340,8 +338,11 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="1" fillId="4" borderId="0" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="1" fillId="5" borderId="0" xfId="7" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="20% - Accent4" xfId="6" builtinId="42"/>
@@ -632,7 +633,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,37 +675,37 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="2">
         <v>110</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="20">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <f>E2*D2</f>
         <v>25.080000000000002</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -713,22 +714,22 @@
       <c r="D3" s="2">
         <v>660</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="19">
         <v>9.2160000000000006E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <f>E3*D3</f>
         <v>60.825600000000001</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -740,224 +741,224 @@
       <c r="D4" s="2">
         <v>110</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="19">
         <v>7.8E-2</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <f>E4*D4</f>
         <v>8.58</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2">
         <v>660</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="19">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <f>E5*D5</f>
         <v>3.9732000000000003</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2">
         <v>220</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="19">
         <v>6.0200000000000002E-3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <f>E6*D6</f>
         <v>1.3244</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="13">
         <v>110</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="21">
         <v>0.19400000000000001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <f>E7*D7</f>
         <v>21.34</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="13">
         <v>220</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="21">
         <v>0.36099999999999999</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="14">
         <f>E8*D8</f>
         <v>79.42</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="13">
         <v>110</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="21">
         <v>0.29699999999999999</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="14">
         <f>E9*D9</f>
         <v>32.67</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="13">
         <v>330</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="21">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="14">
         <f>E10*D10</f>
         <v>28.709999999999997</v>
       </c>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="16">
         <v>110</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="22">
         <v>1.35</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <f>E11*D11</f>
         <v>148.5</v>
       </c>
-      <c r="G11" s="22" t="s">
+      <c r="G11" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <f>SUM(F2:F11)</f>
         <v>410.42320000000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <f>F14/100</f>
         <v>4.1042319999999997</v>
       </c>
